--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/test.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>class_name</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>com.tencent.mm.opensdk.modelbase.BaseResp</t>
-  </si>
-  <si>
-    <t>com.kakao.auth.AgeAuthParamBuilder</t>
-  </si>
-  <si>
-    <t>com.android.billingclient.api.AcknowledgePurchaseParams.Builder</t>
-  </si>
-  <si>
-    <t>com.android.billingclient.api.BillingClient</t>
   </si>
   <si>
     <t xml:space="preserve">card list, less than 40
@@ -79,31 +70,7 @@
 OpenAPIÂìçÂ∫îÂü∫Á±ª</t>
   </si>
   <si>
-    <t>Builder for age authentication parameters</t>
-  </si>
-  <si>
-    <t>Helps construct AcknowledgePurchaseParams that are used to acknowledge a purchase.</t>
-  </si>
-  <si>
-    <t>Main interface for communication between the library and user application code.</t>
-  </si>
-  <si>
     <t>getType()</t>
-  </si>
-  <si>
-    <t>setAdultsOnly(Boolean¬†adultsOnly)</t>
-  </si>
-  <si>
-    <t>setAgeLimit(AuthService.AgeLimit¬†ageLimit)</t>
-  </si>
-  <si>
-    <t>setAuthFrom(String¬†authFrom)</t>
-  </si>
-  <si>
-    <t>setPurchaseToken(String purchaseToken)</t>
-  </si>
-  <si>
-    <t>launchBillingFlow(Activity activity, BillingFlowParams params)</t>
   </si>
   <si>
     <t xml:space="preserve">Return type ID of the current request.
@@ -114,61 +81,19 @@
 </t>
   </si>
   <si>
-    <t>Ï≤≠ÏÜåÎÖÑ Ïú†Ìï¥Î¨º Ïó¨Î∂Ä (ÏùåÏïÖ, TV Îì±).</t>
-  </si>
-  <si>
-    <t>Ïó∞Î†πÏ†úÌïú, ÏùºÎ∞òÏ†ÅÏúºÎ°ú 12ÏÑ∏, 15ÏÑ∏, 19ÏÑ∏ AuthService.AgeLimit</t>
-  </si>
-  <si>
-    <t>ÏÑúÎπÑÏä§ Ïù¥Î¶Ñ (client_id or app_id or service_name)</t>
-  </si>
-  <si>
-    <t>Specify the token that identifies the purchase to be acknowledged.</t>
-  </si>
-  <si>
-    <t>Initiate the billing flow for an in-app purchase or subscription.</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>abstract int</t>
   </si>
   <si>
-    <t>AgeAuthParamBuilder</t>
-  </si>
-  <si>
-    <t>AcknowledgePurchaseParams.Builder</t>
-  </si>
-  <si>
-    <t>abstract                                        BillingResult</t>
-  </si>
-  <si>
     <t>Return type ID of the current request.</t>
   </si>
   <si>
     <t>Return type ID of the current response.</t>
   </si>
   <si>
-    <t>Ïó∞Î†πÏ†úÌïú, ÏùºÎ∞òÏ†ÅÏúºÎ°ú 12ÏÑ∏, 15ÏÑ∏, 19ÏÑ∏ auth service.age limit</t>
-  </si>
-  <si>
     <t>{'ID'}</t>
-  </si>
-  <si>
-    <t>{'TV Îì±'}</t>
-  </si>
-  <si>
-    <t>{'Ïó∞Î†πÏ†úÌïú'}</t>
-  </si>
-  <si>
-    <t>{'service_name'}</t>
-  </si>
-  <si>
-    <t>{'the purchase'}</t>
-  </si>
-  <si>
-    <t>{'purchase'}</t>
   </si>
 </sst>
 </file>
@@ -526,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,25 +488,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -589,25 +514,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -615,25 +540,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -641,155 +566,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
